--- a/Cmf.Custom.IoT/EvatecClusterline200II/MasterData/EvatecClusterline200II.xlsx
+++ b/Cmf.Custom.IoT/EvatecClusterline200II/MasterData/EvatecClusterline200II.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\osram\AMSOSRAM\Cmf.Custom.IoT\EvatecClusterline200II\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F6771A-ABAA-4451-8D9E-E44942BB65CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F977112-E0CC-4B20-9C46-09B293DA284B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -4749,8 +4749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6590,8 +6590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8407,7 +8407,7 @@
   <dimension ref="A1:F288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13608,7 +13608,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15151,7 +15151,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15268,7 +15268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F44A1-0322-4C00-A267-A357BE13D7AD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -16598,7 +16598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/Cmf.Custom.IoT/EvatecClusterline200II/MasterData/EvatecClusterline200II.xlsx
+++ b/Cmf.Custom.IoT/EvatecClusterline200II/MasterData/EvatecClusterline200II.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\osram\AMSOSRAM\Cmf.Custom.IoT\EvatecClusterline200II\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwieler\source\repos\AMSOSRAM\Cmf.Custom.IoT\EvatecClusterline200II\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F977112-E0CC-4B20-9C46-09B293DA284B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13186107-76A7-4E99-8451-E7FA426C7A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="755">
   <si>
     <t>Tab Name</t>
   </si>
@@ -2379,6 +2379,18 @@
   </si>
   <si>
     <t>EvatecClusterline200II\ControlState_03_ControlStateOnlineRemoteUpdateReceived.json</t>
+  </si>
+  <si>
+    <t>CreateControlJob_01_CreateJob</t>
+  </si>
+  <si>
+    <t>EvatecClusterline200II\CreateControlJob_01_CreateJob.json</t>
+  </si>
+  <si>
+    <t>CreateProcessJob_01_CreateJob</t>
+  </si>
+  <si>
+    <t>EvatecClusterline200II\CreateProcessJob_01_CreateJob.json</t>
   </si>
 </sst>
 </file>
@@ -3251,9 +3263,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3278,7 +3290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3289,7 +3301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -3353,7 +3365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -3381,7 +3393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -3395,7 +3407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -3409,7 +3421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -3423,7 +3435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -3434,7 +3446,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -3445,7 +3457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3459,7 +3471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3487,7 +3499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -3501,7 +3513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -3515,7 +3527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -3526,7 +3538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,7 +3563,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -3565,7 +3577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -3579,7 +3591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -3593,7 +3605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -3604,7 +3616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -3618,7 +3630,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -3632,7 +3644,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -3640,7 +3652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -3648,7 +3660,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -3662,7 +3674,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
@@ -3676,7 +3688,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
@@ -3690,7 +3702,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -3718,7 +3730,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -3732,7 +3744,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -3746,7 +3758,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -3757,7 +3769,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>114</v>
       </c>
@@ -3799,7 +3811,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -3813,7 +3825,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>120</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>123</v>
       </c>
@@ -3838,7 +3850,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>125</v>
       </c>
@@ -3849,7 +3861,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -3860,7 +3872,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>130</v>
       </c>
@@ -3874,7 +3886,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
@@ -3888,7 +3900,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>136</v>
       </c>
@@ -3899,7 +3911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
@@ -3924,7 +3936,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>143</v>
       </c>
@@ -3938,7 +3950,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>146</v>
       </c>
@@ -3952,7 +3964,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>149</v>
       </c>
@@ -3963,7 +3975,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>151</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>154</v>
       </c>
@@ -3991,7 +4003,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>157</v>
       </c>
@@ -4002,7 +4014,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>159</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>162</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>168</v>
       </c>
@@ -4052,7 +4064,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>170</v>
       </c>
@@ -4066,7 +4078,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>173</v>
       </c>
@@ -4080,7 +4092,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>176</v>
       </c>
@@ -4094,7 +4106,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>179</v>
       </c>
@@ -4105,7 +4117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>181</v>
       </c>
@@ -4119,7 +4131,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>184</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>187</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>189</v>
       </c>
@@ -4158,7 +4170,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>192</v>
       </c>
@@ -4172,7 +4184,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>195</v>
       </c>
@@ -4186,7 +4198,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>198</v>
       </c>
@@ -4197,7 +4209,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>200</v>
       </c>
@@ -4208,7 +4220,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>202</v>
       </c>
@@ -4219,7 +4231,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>204</v>
       </c>
@@ -4233,7 +4245,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>207</v>
       </c>
@@ -4244,7 +4256,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>209</v>
       </c>
@@ -4255,7 +4267,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>211</v>
       </c>
@@ -4269,7 +4281,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>214</v>
       </c>
@@ -4283,7 +4295,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>218</v>
       </c>
@@ -4294,7 +4306,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>220</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>222</v>
       </c>
@@ -4319,7 +4331,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>226</v>
       </c>
@@ -4327,7 +4339,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>227</v>
       </c>
@@ -4335,7 +4347,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>228</v>
       </c>
@@ -4349,7 +4361,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>231</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>234</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>237</v>
       </c>
@@ -4388,7 +4400,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>239</v>
       </c>
@@ -4402,7 +4414,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>242</v>
       </c>
@@ -4416,7 +4428,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>245</v>
       </c>
@@ -4430,7 +4442,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>248</v>
       </c>
@@ -4444,7 +4456,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>250</v>
       </c>
@@ -4458,7 +4470,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>252</v>
       </c>
@@ -4472,7 +4484,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>254</v>
       </c>
@@ -4483,7 +4495,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>256</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>259</v>
       </c>
@@ -4521,14 +4533,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="4" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>422</v>
       </c>
@@ -4554,7 +4566,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>473</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>473</v>
       </c>
@@ -4588,28 +4600,28 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4627,7 +4639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -4639,7 +4651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -4651,7 +4663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -4663,7 +4675,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -4675,7 +4687,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -4687,7 +4699,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -4701,12 +4713,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>419</v>
       </c>
@@ -4723,7 +4735,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>583</v>
       </c>
@@ -4753,16 +4765,16 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" customWidth="1"/>
+    <col min="6" max="6" width="45.26953125" customWidth="1"/>
+    <col min="7" max="7" width="41.7265625" customWidth="1"/>
+    <col min="8" max="8" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>436</v>
       </c>
@@ -4791,7 +4803,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>583</v>
       </c>
@@ -4819,7 +4831,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>583</v>
       </c>
@@ -4847,7 +4859,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>583</v>
       </c>
@@ -4875,7 +4887,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>583</v>
       </c>
@@ -4903,7 +4915,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>583</v>
       </c>
@@ -4931,7 +4943,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>583</v>
       </c>
@@ -4959,7 +4971,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>583</v>
       </c>
@@ -4987,7 +4999,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>583</v>
       </c>
@@ -5015,7 +5027,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>583</v>
       </c>
@@ -5043,7 +5055,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>583</v>
       </c>
@@ -5071,7 +5083,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>583</v>
       </c>
@@ -5099,7 +5111,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>583</v>
       </c>
@@ -5127,7 +5139,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>583</v>
       </c>
@@ -5155,7 +5167,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>583</v>
       </c>
@@ -5183,7 +5195,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>583</v>
       </c>
@@ -5211,7 +5223,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>583</v>
       </c>
@@ -5239,7 +5251,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>583</v>
       </c>
@@ -5266,7 +5278,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>583</v>
       </c>
@@ -5294,7 +5306,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>583</v>
       </c>
@@ -5322,7 +5334,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>583</v>
       </c>
@@ -5350,7 +5362,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>583</v>
       </c>
@@ -5378,7 +5390,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>583</v>
       </c>
@@ -5406,7 +5418,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>583</v>
       </c>
@@ -5434,7 +5446,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>583</v>
       </c>
@@ -5462,7 +5474,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>583</v>
       </c>
@@ -5490,7 +5502,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>583</v>
       </c>
@@ -5518,7 +5530,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>583</v>
       </c>
@@ -5546,7 +5558,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>583</v>
       </c>
@@ -5574,7 +5586,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>583</v>
       </c>
@@ -5602,7 +5614,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>583</v>
       </c>
@@ -5630,7 +5642,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>583</v>
       </c>
@@ -5658,7 +5670,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>583</v>
       </c>
@@ -5686,7 +5698,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>583</v>
       </c>
@@ -5714,7 +5726,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>583</v>
       </c>
@@ -5742,7 +5754,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>583</v>
       </c>
@@ -5770,7 +5782,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>583</v>
       </c>
@@ -5798,7 +5810,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>583</v>
       </c>
@@ -5826,7 +5838,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>583</v>
       </c>
@@ -5854,7 +5866,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>583</v>
       </c>
@@ -5882,7 +5894,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>583</v>
       </c>
@@ -5910,7 +5922,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>583</v>
       </c>
@@ -5938,7 +5950,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>583</v>
       </c>
@@ -5966,7 +5978,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>583</v>
       </c>
@@ -5994,7 +6006,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>583</v>
       </c>
@@ -6022,7 +6034,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>583</v>
       </c>
@@ -6051,7 +6063,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>583</v>
       </c>
@@ -6080,7 +6092,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6093,7 +6105,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6106,7 +6118,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6119,7 +6131,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6132,7 +6144,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6145,7 +6157,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6158,7 +6170,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6171,7 +6183,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6184,7 +6196,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6197,7 +6209,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6210,7 +6222,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6223,7 +6235,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6236,7 +6248,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6249,7 +6261,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6257,7 +6269,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6265,7 +6277,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6273,7 +6285,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6281,7 +6293,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6289,7 +6301,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6297,7 +6309,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6305,7 +6317,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6313,7 +6325,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6321,7 +6333,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6329,7 +6341,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -6337,7 +6349,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -6345,7 +6357,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -6353,7 +6365,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -6361,7 +6373,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -6369,7 +6381,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -6377,7 +6389,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -6385,7 +6397,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -6393,7 +6405,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -6401,7 +6413,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -6409,7 +6421,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -6417,7 +6429,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -6425,7 +6437,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -6433,7 +6445,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -6441,7 +6453,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -6449,7 +6461,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -6457,7 +6469,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -6465,7 +6477,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -6473,7 +6485,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -6481,7 +6493,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -6489,7 +6501,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -6497,7 +6509,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -6505,7 +6517,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -6513,7 +6525,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -6521,7 +6533,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -6529,7 +6541,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -6537,7 +6549,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -6545,7 +6557,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -6553,7 +6565,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -6561,7 +6573,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -6594,15 +6606,15 @@
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="82.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>436</v>
       </c>
@@ -6622,7 +6634,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>583</v>
       </c>
@@ -6641,7 +6653,7 @@
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>583</v>
       </c>
@@ -6657,7 +6669,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>583</v>
       </c>
@@ -6674,7 +6686,7 @@
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>583</v>
       </c>
@@ -6691,7 +6703,7 @@
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>583</v>
       </c>
@@ -6708,7 +6720,7 @@
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>583</v>
       </c>
@@ -6725,7 +6737,7 @@
       <c r="F7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>583</v>
       </c>
@@ -6742,7 +6754,7 @@
       <c r="F8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>583</v>
       </c>
@@ -6759,7 +6771,7 @@
       <c r="F9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>583</v>
       </c>
@@ -6776,7 +6788,7 @@
       <c r="F10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>583</v>
       </c>
@@ -6793,7 +6805,7 @@
       <c r="F11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>583</v>
       </c>
@@ -6810,7 +6822,7 @@
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>583</v>
       </c>
@@ -6827,7 +6839,7 @@
       <c r="F13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>583</v>
       </c>
@@ -6844,7 +6856,7 @@
       <c r="F14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>583</v>
       </c>
@@ -6860,7 +6872,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>583</v>
       </c>
@@ -6876,7 +6888,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>583</v>
       </c>
@@ -6894,7 +6906,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>583</v>
       </c>
@@ -6912,7 +6924,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>583</v>
       </c>
@@ -6929,7 +6941,7 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>583</v>
       </c>
@@ -6946,7 +6958,7 @@
       <c r="F20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>583</v>
       </c>
@@ -6963,7 +6975,7 @@
       <c r="F21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>583</v>
       </c>
@@ -6980,7 +6992,7 @@
       <c r="F22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>583</v>
       </c>
@@ -6997,7 +7009,7 @@
       <c r="F23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>583</v>
       </c>
@@ -7014,7 +7026,7 @@
       <c r="F24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>583</v>
       </c>
@@ -7030,7 +7042,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>583</v>
       </c>
@@ -7046,7 +7058,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>583</v>
       </c>
@@ -7063,7 +7075,7 @@
       <c r="F27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>583</v>
       </c>
@@ -7080,7 +7092,7 @@
       <c r="F28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>583</v>
       </c>
@@ -7097,7 +7109,7 @@
       <c r="F29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>583</v>
       </c>
@@ -7113,7 +7125,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>583</v>
       </c>
@@ -7129,7 +7141,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>583</v>
       </c>
@@ -7145,7 +7157,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>583</v>
       </c>
@@ -7159,7 +7171,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>583</v>
       </c>
@@ -7173,7 +7185,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>583</v>
       </c>
@@ -7190,7 +7202,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>583</v>
       </c>
@@ -7207,7 +7219,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>583</v>
       </c>
@@ -7224,7 +7236,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>583</v>
       </c>
@@ -7241,7 +7253,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>583</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>583</v>
       </c>
@@ -7275,7 +7287,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>583</v>
       </c>
@@ -7292,7 +7304,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>583</v>
       </c>
@@ -7309,7 +7321,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>583</v>
       </c>
@@ -7326,7 +7338,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>583</v>
       </c>
@@ -7343,7 +7355,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>583</v>
       </c>
@@ -7360,7 +7372,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>583</v>
       </c>
@@ -7377,7 +7389,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>583</v>
       </c>
@@ -7394,7 +7406,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>583</v>
       </c>
@@ -7411,7 +7423,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>583</v>
       </c>
@@ -7428,7 +7440,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>583</v>
       </c>
@@ -7445,7 +7457,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>583</v>
       </c>
@@ -7462,7 +7474,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>583</v>
       </c>
@@ -7479,7 +7491,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>583</v>
       </c>
@@ -7496,7 +7508,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>583</v>
       </c>
@@ -7513,7 +7525,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>583</v>
       </c>
@@ -7530,7 +7542,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>583</v>
       </c>
@@ -7547,7 +7559,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>583</v>
       </c>
@@ -7564,7 +7576,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>583</v>
       </c>
@@ -7581,7 +7593,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>583</v>
       </c>
@@ -7598,7 +7610,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>583</v>
       </c>
@@ -7615,7 +7627,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>583</v>
       </c>
@@ -7632,7 +7644,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>583</v>
       </c>
@@ -7649,7 +7661,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>583</v>
       </c>
@@ -7666,7 +7678,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>583</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>583</v>
       </c>
@@ -7700,7 +7712,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>583</v>
       </c>
@@ -7717,7 +7729,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>583</v>
       </c>
@@ -7734,7 +7746,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>583</v>
       </c>
@@ -7751,7 +7763,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>583</v>
       </c>
@@ -7768,7 +7780,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>583</v>
       </c>
@@ -7785,7 +7797,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>583</v>
       </c>
@@ -7802,7 +7814,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>583</v>
       </c>
@@ -7819,7 +7831,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>583</v>
       </c>
@@ -7836,7 +7848,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>583</v>
       </c>
@@ -7853,7 +7865,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>583</v>
       </c>
@@ -7870,7 +7882,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>583</v>
       </c>
@@ -7887,7 +7899,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>583</v>
       </c>
@@ -7904,7 +7916,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>583</v>
       </c>
@@ -7921,7 +7933,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>583</v>
       </c>
@@ -7938,7 +7950,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>583</v>
       </c>
@@ -7955,7 +7967,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>583</v>
       </c>
@@ -7972,7 +7984,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>583</v>
       </c>
@@ -7989,7 +8001,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>583</v>
       </c>
@@ -8006,7 +8018,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>583</v>
       </c>
@@ -8023,7 +8035,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>583</v>
       </c>
@@ -8040,7 +8052,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>583</v>
       </c>
@@ -8057,7 +8069,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>583</v>
       </c>
@@ -8074,7 +8086,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>583</v>
       </c>
@@ -8091,7 +8103,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>583</v>
       </c>
@@ -8129,9 +8141,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>262</v>
       </c>
@@ -8145,7 +8157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>265</v>
       </c>
@@ -8159,7 +8171,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>265</v>
       </c>
@@ -8173,7 +8185,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>265</v>
       </c>
@@ -8187,7 +8199,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -8201,7 +8213,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -8215,7 +8227,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -8229,7 +8241,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>282</v>
       </c>
@@ -8243,7 +8255,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>141</v>
       </c>
@@ -8257,7 +8269,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>289</v>
       </c>
@@ -8271,7 +8283,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>289</v>
       </c>
@@ -8285,7 +8297,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
@@ -8299,7 +8311,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>299</v>
       </c>
@@ -8313,7 +8325,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -8327,7 +8339,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>305</v>
       </c>
@@ -8341,7 +8353,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>187</v>
       </c>
@@ -8355,7 +8367,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>312</v>
       </c>
@@ -8369,7 +8381,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>312</v>
       </c>
@@ -8383,7 +8395,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>200</v>
       </c>
@@ -8410,14 +8422,14 @@
       <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>436</v>
       </c>
@@ -8434,7 +8446,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>583</v>
       </c>
@@ -8452,7 +8464,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>583</v>
       </c>
@@ -8470,7 +8482,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>583</v>
       </c>
@@ -8488,7 +8500,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>583</v>
       </c>
@@ -8506,7 +8518,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>583</v>
       </c>
@@ -8524,7 +8536,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>583</v>
       </c>
@@ -8542,7 +8554,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>583</v>
       </c>
@@ -8560,7 +8572,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>583</v>
       </c>
@@ -8578,7 +8590,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>583</v>
       </c>
@@ -8596,7 +8608,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>583</v>
       </c>
@@ -8614,7 +8626,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>583</v>
       </c>
@@ -8632,7 +8644,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>583</v>
       </c>
@@ -8650,7 +8662,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>583</v>
       </c>
@@ -8668,7 +8680,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>583</v>
       </c>
@@ -8686,7 +8698,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>583</v>
       </c>
@@ -8704,7 +8716,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>583</v>
       </c>
@@ -8722,7 +8734,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>583</v>
       </c>
@@ -8740,7 +8752,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>583</v>
       </c>
@@ -8758,7 +8770,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>583</v>
       </c>
@@ -8776,7 +8788,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>583</v>
       </c>
@@ -8794,7 +8806,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>583</v>
       </c>
@@ -8812,7 +8824,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>583</v>
       </c>
@@ -8830,7 +8842,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>583</v>
       </c>
@@ -8848,7 +8860,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>583</v>
       </c>
@@ -8866,7 +8878,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>583</v>
       </c>
@@ -8884,7 +8896,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>583</v>
       </c>
@@ -8902,7 +8914,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>583</v>
       </c>
@@ -8920,7 +8932,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>583</v>
       </c>
@@ -8938,7 +8950,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>583</v>
       </c>
@@ -8956,7 +8968,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>583</v>
       </c>
@@ -8974,7 +8986,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>583</v>
       </c>
@@ -8992,7 +9004,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>583</v>
       </c>
@@ -9010,7 +9022,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>583</v>
       </c>
@@ -9028,7 +9040,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>583</v>
       </c>
@@ -9046,7 +9058,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>583</v>
       </c>
@@ -9064,7 +9076,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>583</v>
       </c>
@@ -9082,7 +9094,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>583</v>
       </c>
@@ -9100,7 +9112,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>583</v>
       </c>
@@ -9118,7 +9130,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>583</v>
       </c>
@@ -9136,7 +9148,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>583</v>
       </c>
@@ -9154,7 +9166,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>583</v>
       </c>
@@ -9172,7 +9184,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>583</v>
       </c>
@@ -9190,7 +9202,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>583</v>
       </c>
@@ -9208,7 +9220,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>583</v>
       </c>
@@ -9226,7 +9238,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>583</v>
       </c>
@@ -9244,7 +9256,7 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>583</v>
       </c>
@@ -9262,7 +9274,7 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>583</v>
       </c>
@@ -9280,7 +9292,7 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>583</v>
       </c>
@@ -9298,7 +9310,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>583</v>
       </c>
@@ -9316,7 +9328,7 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>583</v>
       </c>
@@ -9334,7 +9346,7 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>583</v>
       </c>
@@ -9352,7 +9364,7 @@
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>583</v>
       </c>
@@ -9370,7 +9382,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>583</v>
       </c>
@@ -9388,7 +9400,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>583</v>
       </c>
@@ -9406,7 +9418,7 @@
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>583</v>
       </c>
@@ -9424,7 +9436,7 @@
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>583</v>
       </c>
@@ -9442,7 +9454,7 @@
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>583</v>
       </c>
@@ -9460,7 +9472,7 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>583</v>
       </c>
@@ -9478,7 +9490,7 @@
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>583</v>
       </c>
@@ -9496,7 +9508,7 @@
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>583</v>
       </c>
@@ -9514,7 +9526,7 @@
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>583</v>
       </c>
@@ -9532,7 +9544,7 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>583</v>
       </c>
@@ -9550,7 +9562,7 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>583</v>
       </c>
@@ -9568,7 +9580,7 @@
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>583</v>
       </c>
@@ -9586,7 +9598,7 @@
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>583</v>
       </c>
@@ -9604,7 +9616,7 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>583</v>
       </c>
@@ -9622,7 +9634,7 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>583</v>
       </c>
@@ -9640,7 +9652,7 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>583</v>
       </c>
@@ -9658,7 +9670,7 @@
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>583</v>
       </c>
@@ -9676,7 +9688,7 @@
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>583</v>
       </c>
@@ -9694,7 +9706,7 @@
       </c>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>583</v>
       </c>
@@ -9712,7 +9724,7 @@
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>583</v>
       </c>
@@ -9730,7 +9742,7 @@
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>583</v>
       </c>
@@ -9748,7 +9760,7 @@
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>583</v>
       </c>
@@ -9766,7 +9778,7 @@
       </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>583</v>
       </c>
@@ -9784,7 +9796,7 @@
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>583</v>
       </c>
@@ -9802,7 +9814,7 @@
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>583</v>
       </c>
@@ -9820,7 +9832,7 @@
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>583</v>
       </c>
@@ -9838,7 +9850,7 @@
       </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>583</v>
       </c>
@@ -9856,7 +9868,7 @@
       </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>583</v>
       </c>
@@ -9874,7 +9886,7 @@
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>583</v>
       </c>
@@ -9892,7 +9904,7 @@
       </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>583</v>
       </c>
@@ -9910,7 +9922,7 @@
       </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>583</v>
       </c>
@@ -9928,7 +9940,7 @@
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>583</v>
       </c>
@@ -9946,7 +9958,7 @@
       </c>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>583</v>
       </c>
@@ -9964,7 +9976,7 @@
       </c>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>583</v>
       </c>
@@ -9982,7 +9994,7 @@
       </c>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>583</v>
       </c>
@@ -10000,7 +10012,7 @@
       </c>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>583</v>
       </c>
@@ -10018,7 +10030,7 @@
       </c>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>583</v>
       </c>
@@ -10036,7 +10048,7 @@
       </c>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>583</v>
       </c>
@@ -10054,7 +10066,7 @@
       </c>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>583</v>
       </c>
@@ -10072,7 +10084,7 @@
       </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>583</v>
       </c>
@@ -10090,7 +10102,7 @@
       </c>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>583</v>
       </c>
@@ -10108,7 +10120,7 @@
       </c>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>583</v>
       </c>
@@ -10126,7 +10138,7 @@
       </c>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>583</v>
       </c>
@@ -10144,7 +10156,7 @@
       </c>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>583</v>
       </c>
@@ -10162,7 +10174,7 @@
       </c>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>583</v>
       </c>
@@ -10180,7 +10192,7 @@
       </c>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>583</v>
       </c>
@@ -10198,7 +10210,7 @@
       </c>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>583</v>
       </c>
@@ -10216,7 +10228,7 @@
       </c>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>583</v>
       </c>
@@ -10234,7 +10246,7 @@
       </c>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>583</v>
       </c>
@@ -10252,7 +10264,7 @@
       </c>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>583</v>
       </c>
@@ -10270,7 +10282,7 @@
       </c>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>583</v>
       </c>
@@ -10288,7 +10300,7 @@
       </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>583</v>
       </c>
@@ -10306,7 +10318,7 @@
       </c>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>583</v>
       </c>
@@ -10324,7 +10336,7 @@
       </c>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>583</v>
       </c>
@@ -10342,7 +10354,7 @@
       </c>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>583</v>
       </c>
@@ -10360,7 +10372,7 @@
       </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>583</v>
       </c>
@@ -10378,7 +10390,7 @@
       </c>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>583</v>
       </c>
@@ -10396,7 +10408,7 @@
       </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>583</v>
       </c>
@@ -10414,7 +10426,7 @@
       </c>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>583</v>
       </c>
@@ -10432,7 +10444,7 @@
       </c>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>583</v>
       </c>
@@ -10450,7 +10462,7 @@
       </c>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>583</v>
       </c>
@@ -10468,7 +10480,7 @@
       </c>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>583</v>
       </c>
@@ -10486,7 +10498,7 @@
       </c>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>583</v>
       </c>
@@ -10504,7 +10516,7 @@
       </c>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>583</v>
       </c>
@@ -10522,7 +10534,7 @@
       </c>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>583</v>
       </c>
@@ -10540,7 +10552,7 @@
       </c>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>583</v>
       </c>
@@ -10558,7 +10570,7 @@
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>583</v>
       </c>
@@ -10576,7 +10588,7 @@
       </c>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>583</v>
       </c>
@@ -10594,7 +10606,7 @@
       </c>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>583</v>
       </c>
@@ -10612,7 +10624,7 @@
       </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>583</v>
       </c>
@@ -10630,7 +10642,7 @@
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>583</v>
       </c>
@@ -10648,7 +10660,7 @@
       </c>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>583</v>
       </c>
@@ -10666,7 +10678,7 @@
       </c>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>583</v>
       </c>
@@ -10684,7 +10696,7 @@
       </c>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>583</v>
       </c>
@@ -10702,7 +10714,7 @@
       </c>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>583</v>
       </c>
@@ -10720,7 +10732,7 @@
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>583</v>
       </c>
@@ -10738,7 +10750,7 @@
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>583</v>
       </c>
@@ -10756,7 +10768,7 @@
       </c>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>583</v>
       </c>
@@ -10774,7 +10786,7 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>583</v>
       </c>
@@ -10792,7 +10804,7 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>583</v>
       </c>
@@ -10810,7 +10822,7 @@
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>583</v>
       </c>
@@ -10828,7 +10840,7 @@
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>583</v>
       </c>
@@ -10846,7 +10858,7 @@
       </c>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>583</v>
       </c>
@@ -10864,7 +10876,7 @@
       </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>583</v>
       </c>
@@ -10882,7 +10894,7 @@
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>583</v>
       </c>
@@ -10900,7 +10912,7 @@
       </c>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>583</v>
       </c>
@@ -10918,7 +10930,7 @@
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>583</v>
       </c>
@@ -10936,7 +10948,7 @@
       </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>583</v>
       </c>
@@ -10954,7 +10966,7 @@
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>583</v>
       </c>
@@ -10972,7 +10984,7 @@
       </c>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>583</v>
       </c>
@@ -10990,7 +11002,7 @@
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>583</v>
       </c>
@@ -11008,7 +11020,7 @@
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>583</v>
       </c>
@@ -11026,7 +11038,7 @@
       </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>583</v>
       </c>
@@ -11044,7 +11056,7 @@
       </c>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>583</v>
       </c>
@@ -11062,7 +11074,7 @@
       </c>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>583</v>
       </c>
@@ -11080,7 +11092,7 @@
       </c>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>583</v>
       </c>
@@ -11098,7 +11110,7 @@
       </c>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>583</v>
       </c>
@@ -11116,7 +11128,7 @@
       </c>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>583</v>
       </c>
@@ -11133,7 +11145,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>583</v>
       </c>
@@ -11150,7 +11162,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>583</v>
       </c>
@@ -11167,7 +11179,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>583</v>
       </c>
@@ -11184,7 +11196,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>583</v>
       </c>
@@ -11201,7 +11213,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>583</v>
       </c>
@@ -11218,7 +11230,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>583</v>
       </c>
@@ -11235,7 +11247,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>583</v>
       </c>
@@ -11252,7 +11264,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>583</v>
       </c>
@@ -11269,7 +11281,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>583</v>
       </c>
@@ -11286,7 +11298,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>583</v>
       </c>
@@ -11303,7 +11315,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>583</v>
       </c>
@@ -11320,7 +11332,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>583</v>
       </c>
@@ -11337,7 +11349,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>583</v>
       </c>
@@ -11354,7 +11366,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>583</v>
       </c>
@@ -11371,7 +11383,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>583</v>
       </c>
@@ -11388,7 +11400,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>583</v>
       </c>
@@ -11405,7 +11417,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>583</v>
       </c>
@@ -11422,7 +11434,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>583</v>
       </c>
@@ -11439,7 +11451,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>583</v>
       </c>
@@ -11456,7 +11468,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>583</v>
       </c>
@@ -11473,7 +11485,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>583</v>
       </c>
@@ -11490,7 +11502,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>583</v>
       </c>
@@ -11507,7 +11519,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>583</v>
       </c>
@@ -11524,7 +11536,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>583</v>
       </c>
@@ -11541,7 +11553,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>583</v>
       </c>
@@ -11558,7 +11570,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>583</v>
       </c>
@@ -11575,7 +11587,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>583</v>
       </c>
@@ -11592,7 +11604,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>583</v>
       </c>
@@ -11609,7 +11621,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>583</v>
       </c>
@@ -11626,7 +11638,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>583</v>
       </c>
@@ -11643,7 +11655,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>583</v>
       </c>
@@ -11660,7 +11672,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>583</v>
       </c>
@@ -11677,7 +11689,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>583</v>
       </c>
@@ -11694,7 +11706,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>583</v>
       </c>
@@ -11711,7 +11723,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>583</v>
       </c>
@@ -11728,7 +11740,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>583</v>
       </c>
@@ -11745,7 +11757,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>583</v>
       </c>
@@ -11762,7 +11774,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>583</v>
       </c>
@@ -11779,7 +11791,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>583</v>
       </c>
@@ -11796,7 +11808,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>583</v>
       </c>
@@ -11813,7 +11825,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>583</v>
       </c>
@@ -11830,7 +11842,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>583</v>
       </c>
@@ -11847,7 +11859,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>583</v>
       </c>
@@ -11864,7 +11876,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>583</v>
       </c>
@@ -11881,7 +11893,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>583</v>
       </c>
@@ -11898,7 +11910,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>583</v>
       </c>
@@ -11915,7 +11927,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>583</v>
       </c>
@@ -11932,7 +11944,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>583</v>
       </c>
@@ -11949,7 +11961,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>583</v>
       </c>
@@ -11966,7 +11978,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>583</v>
       </c>
@@ -11983,7 +11995,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>583</v>
       </c>
@@ -12000,7 +12012,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>583</v>
       </c>
@@ -12017,7 +12029,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>583</v>
       </c>
@@ -12034,7 +12046,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>583</v>
       </c>
@@ -12051,7 +12063,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>583</v>
       </c>
@@ -12068,7 +12080,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>583</v>
       </c>
@@ -12085,7 +12097,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>583</v>
       </c>
@@ -12102,7 +12114,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>583</v>
       </c>
@@ -12119,7 +12131,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>583</v>
       </c>
@@ -12136,7 +12148,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>583</v>
       </c>
@@ -12153,7 +12165,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>583</v>
       </c>
@@ -12170,7 +12182,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>583</v>
       </c>
@@ -12187,7 +12199,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>583</v>
       </c>
@@ -12204,7 +12216,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>583</v>
       </c>
@@ -12221,7 +12233,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>583</v>
       </c>
@@ -12238,7 +12250,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>583</v>
       </c>
@@ -12255,7 +12267,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>583</v>
       </c>
@@ -12272,7 +12284,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>583</v>
       </c>
@@ -12289,7 +12301,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>583</v>
       </c>
@@ -12306,7 +12318,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>583</v>
       </c>
@@ -12323,7 +12335,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>583</v>
       </c>
@@ -12340,7 +12352,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>583</v>
       </c>
@@ -12357,7 +12369,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>583</v>
       </c>
@@ -12374,7 +12386,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>583</v>
       </c>
@@ -12391,7 +12403,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>583</v>
       </c>
@@ -12408,7 +12420,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>583</v>
       </c>
@@ -12425,7 +12437,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>583</v>
       </c>
@@ -12442,7 +12454,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>583</v>
       </c>
@@ -12459,7 +12471,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>583</v>
       </c>
@@ -12476,7 +12488,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>583</v>
       </c>
@@ -12493,7 +12505,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>583</v>
       </c>
@@ -12510,7 +12522,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>583</v>
       </c>
@@ -12527,7 +12539,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>583</v>
       </c>
@@ -12544,7 +12556,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>583</v>
       </c>
@@ -12561,7 +12573,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>583</v>
       </c>
@@ -12578,7 +12590,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>583</v>
       </c>
@@ -12595,7 +12607,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>583</v>
       </c>
@@ -12612,7 +12624,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>583</v>
       </c>
@@ -12629,7 +12641,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>583</v>
       </c>
@@ -12646,7 +12658,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>583</v>
       </c>
@@ -12663,7 +12675,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>583</v>
       </c>
@@ -12680,7 +12692,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>583</v>
       </c>
@@ -12697,7 +12709,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>583</v>
       </c>
@@ -12714,7 +12726,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>583</v>
       </c>
@@ -12731,7 +12743,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>583</v>
       </c>
@@ -12748,7 +12760,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>583</v>
       </c>
@@ -12765,7 +12777,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>583</v>
       </c>
@@ -12782,7 +12794,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>583</v>
       </c>
@@ -12799,7 +12811,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>583</v>
       </c>
@@ -12816,7 +12828,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>583</v>
       </c>
@@ -12833,7 +12845,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>583</v>
       </c>
@@ -12850,7 +12862,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>583</v>
       </c>
@@ -12867,7 +12879,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>583</v>
       </c>
@@ -12884,7 +12896,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>583</v>
       </c>
@@ -12901,7 +12913,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>583</v>
       </c>
@@ -12918,7 +12930,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>583</v>
       </c>
@@ -12935,7 +12947,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>583</v>
       </c>
@@ -12952,7 +12964,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>583</v>
       </c>
@@ -12969,7 +12981,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>583</v>
       </c>
@@ -12986,7 +12998,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>583</v>
       </c>
@@ -13003,7 +13015,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>583</v>
       </c>
@@ -13020,7 +13032,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>583</v>
       </c>
@@ -13037,7 +13049,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>583</v>
       </c>
@@ -13054,7 +13066,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>583</v>
       </c>
@@ -13071,7 +13083,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>583</v>
       </c>
@@ -13088,7 +13100,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>583</v>
       </c>
@@ -13105,7 +13117,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>583</v>
       </c>
@@ -13122,7 +13134,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>583</v>
       </c>
@@ -13139,7 +13151,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>583</v>
       </c>
@@ -13156,7 +13168,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>583</v>
       </c>
@@ -13173,7 +13185,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>583</v>
       </c>
@@ -13190,7 +13202,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>583</v>
       </c>
@@ -13207,7 +13219,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>583</v>
       </c>
@@ -13224,7 +13236,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>583</v>
       </c>
@@ -13241,7 +13253,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>583</v>
       </c>
@@ -13258,7 +13270,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>583</v>
       </c>
@@ -13275,7 +13287,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>583</v>
       </c>
@@ -13292,7 +13304,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>583</v>
       </c>
@@ -13309,7 +13321,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>583</v>
       </c>
@@ -13326,7 +13338,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>583</v>
       </c>
@@ -13343,7 +13355,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>583</v>
       </c>
@@ -13360,7 +13372,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>583</v>
       </c>
@@ -13377,7 +13389,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>583</v>
       </c>
@@ -13394,7 +13406,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>583</v>
       </c>
@@ -13411,7 +13423,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>583</v>
       </c>
@@ -13428,7 +13440,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>583</v>
       </c>
@@ -13445,7 +13457,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>583</v>
       </c>
@@ -13611,13 +13623,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>436</v>
       </c>
@@ -13634,7 +13646,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>583</v>
       </c>
@@ -13651,7 +13663,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>583</v>
       </c>
@@ -13668,7 +13680,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>583</v>
       </c>
@@ -13685,7 +13697,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>583</v>
       </c>
@@ -13699,7 +13711,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>583</v>
       </c>
@@ -13716,7 +13728,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>583</v>
       </c>
@@ -13733,7 +13745,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>583</v>
       </c>
@@ -13750,7 +13762,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>583</v>
       </c>
@@ -13767,13 +13779,13 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -13787,18 +13799,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>436</v>
       </c>
@@ -13830,7 +13842,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>583</v>
       </c>
@@ -13853,7 +13865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>583</v>
       </c>
@@ -13877,7 +13889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>583</v>
       </c>
@@ -13900,7 +13912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>583</v>
       </c>
@@ -13924,7 +13936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>583</v>
       </c>
@@ -13947,7 +13959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>583</v>
       </c>
@@ -13971,7 +13983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>583</v>
       </c>
@@ -13995,7 +14007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>583</v>
       </c>
@@ -14019,7 +14031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>583</v>
       </c>
@@ -14043,7 +14055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>583</v>
       </c>
@@ -14067,7 +14079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>583</v>
       </c>
@@ -14091,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -14099,7 +14111,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -14107,7 +14119,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -14115,7 +14127,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -14123,7 +14135,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -14131,7 +14143,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -14139,7 +14151,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -14147,7 +14159,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -14155,7 +14167,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -14163,7 +14175,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -14171,7 +14183,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -14179,7 +14191,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -14187,7 +14199,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -14195,7 +14207,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -14203,7 +14215,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -14211,7 +14223,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -14219,7 +14231,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -14227,7 +14239,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -14235,7 +14247,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -14243,7 +14255,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -14251,7 +14263,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -14259,7 +14271,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -14268,7 +14280,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -14276,7 +14288,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -14284,7 +14296,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -14292,7 +14304,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -14300,7 +14312,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -14308,7 +14320,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -14316,7 +14328,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -14324,7 +14336,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -14332,7 +14344,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -14340,7 +14352,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -14348,7 +14360,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -14356,7 +14368,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -14364,7 +14376,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -14372,7 +14384,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -14380,7 +14392,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -14388,7 +14400,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -14396,7 +14408,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -14404,7 +14416,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -14412,7 +14424,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -14420,7 +14432,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -14428,7 +14440,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -14436,7 +14448,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -14444,7 +14456,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -14452,7 +14464,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -14460,7 +14472,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -14469,7 +14481,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -14477,7 +14489,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -14485,7 +14497,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -14493,7 +14505,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -14501,7 +14513,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -14509,7 +14521,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -14517,7 +14529,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -14525,7 +14537,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -14533,7 +14545,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -14541,7 +14553,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -14549,7 +14561,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -14557,7 +14569,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -14565,7 +14577,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -14573,7 +14585,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -14581,7 +14593,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -14589,7 +14601,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -14597,7 +14609,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -14605,7 +14617,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -14613,7 +14625,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -14621,7 +14633,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -14629,7 +14641,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -14637,7 +14649,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -14645,7 +14657,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -14653,7 +14665,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -14661,7 +14673,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -14670,7 +14682,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -14678,7 +14690,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -14686,7 +14698,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -14695,7 +14707,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -14703,7 +14715,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -14711,7 +14723,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -14719,7 +14731,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -14727,7 +14739,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -14735,7 +14747,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -14743,7 +14755,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -14751,7 +14763,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -14759,7 +14771,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -14767,7 +14779,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -14775,7 +14787,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -14783,7 +14795,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -14791,7 +14803,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -14799,7 +14811,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -14807,7 +14819,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -14815,7 +14827,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -14823,7 +14835,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -14831,7 +14843,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -14839,7 +14851,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -14847,7 +14859,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -14855,7 +14867,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -14863,7 +14875,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -14871,7 +14883,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -14879,7 +14891,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -14888,7 +14900,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -14897,7 +14909,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -14905,7 +14917,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -14913,7 +14925,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -14921,7 +14933,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -14929,7 +14941,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -14937,7 +14949,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -14945,7 +14957,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -14953,7 +14965,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -14961,7 +14973,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -14969,7 +14981,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -14977,7 +14989,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -14985,7 +14997,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -14993,7 +15005,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -15001,7 +15013,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -15009,7 +15021,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -15017,7 +15029,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -15025,7 +15037,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -15033,7 +15045,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -15041,7 +15053,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -15049,7 +15061,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -15057,7 +15069,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -15065,7 +15077,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -15073,7 +15085,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -15081,7 +15093,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -15090,7 +15102,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -15098,7 +15110,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -15106,7 +15118,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -15115,7 +15127,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -15123,7 +15135,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -15131,7 +15143,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -15154,12 +15166,12 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="108.85546875" customWidth="1"/>
+    <col min="6" max="6" width="108.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>419</v>
       </c>
@@ -15182,7 +15194,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>584</v>
       </c>
@@ -15218,14 +15230,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>458</v>
       </c>
@@ -15242,7 +15254,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>584</v>
       </c>
@@ -15266,24 +15278,24 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F44A1-0322-4C00-A267-A357BE13D7AD}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="76" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="27.453125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>458</v>
       </c>
@@ -15303,7 +15315,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>584</v>
       </c>
@@ -15323,7 +15335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>584</v>
       </c>
@@ -15343,7 +15355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>584</v>
       </c>
@@ -15363,7 +15375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>584</v>
       </c>
@@ -15383,7 +15395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>584</v>
       </c>
@@ -15403,7 +15415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>584</v>
       </c>
@@ -15423,7 +15435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>584</v>
       </c>
@@ -15443,7 +15455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>584</v>
       </c>
@@ -15463,7 +15475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>584</v>
       </c>
@@ -15483,7 +15495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>584</v>
       </c>
@@ -15503,7 +15515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>584</v>
       </c>
@@ -15523,7 +15535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>584</v>
       </c>
@@ -15543,7 +15555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>584</v>
       </c>
@@ -15563,7 +15575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>584</v>
       </c>
@@ -15583,7 +15595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>584</v>
       </c>
@@ -15603,7 +15615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>584</v>
       </c>
@@ -15623,7 +15635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>584</v>
       </c>
@@ -15643,7 +15655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>584</v>
       </c>
@@ -15663,7 +15675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>584</v>
       </c>
@@ -15683,7 +15695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>584</v>
       </c>
@@ -15703,7 +15715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>584</v>
       </c>
@@ -15723,7 +15735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>584</v>
       </c>
@@ -15743,7 +15755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>584</v>
       </c>
@@ -15763,7 +15775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>584</v>
       </c>
@@ -15783,7 +15795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>584</v>
       </c>
@@ -15803,7 +15815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>584</v>
       </c>
@@ -15823,7 +15835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>584</v>
       </c>
@@ -15843,7 +15855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>584</v>
       </c>
@@ -15863,7 +15875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>584</v>
       </c>
@@ -15883,7 +15895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>584</v>
       </c>
@@ -15903,7 +15915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>584</v>
       </c>
@@ -15923,7 +15935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>584</v>
       </c>
@@ -15943,7 +15955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>584</v>
       </c>
@@ -15963,7 +15975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>584</v>
       </c>
@@ -15983,7 +15995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>584</v>
       </c>
@@ -16001,6 +16013,46 @@
       </c>
       <c r="F36" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="F37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F38" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -16015,7 +16067,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -16027,9 +16079,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>262</v>
       </c>
@@ -16037,7 +16089,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>265</v>
       </c>
@@ -16045,7 +16097,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>265</v>
       </c>
@@ -16053,7 +16105,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>283</v>
       </c>
@@ -16061,7 +16113,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>325</v>
       </c>
@@ -16069,7 +16121,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>327</v>
       </c>
@@ -16077,7 +16129,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>329</v>
       </c>
@@ -16096,9 +16148,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>330</v>
       </c>
@@ -16106,7 +16158,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>332</v>
       </c>
@@ -16114,7 +16166,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>254</v>
       </c>
@@ -16133,434 +16185,434 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>418</v>
       </c>
@@ -16576,7 +16628,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -16588,7 +16640,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -16602,9 +16654,9 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>419</v>
       </c>
@@ -16618,7 +16670,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="D2" s="1"/>
     </row>
@@ -16635,14 +16687,14 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>422</v>
       </c>
@@ -16665,7 +16717,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -16673,7 +16725,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16681,7 +16733,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
